--- a/template/monthlyStatement.xlsx
+++ b/template/monthlyStatement.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12600" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对账单明细" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>深圳市拜特科技股份有限公司月对账单</t>
   </si>
@@ -100,6 +99,12 @@
   </si>
   <si>
     <t>备注：收到对账单后，请于三个工作日内签字、盖章确认，如果未收到确认回复，视为默认。</t>
+  </si>
+  <si>
+    <t>{{monthly.interestBalance}}</t>
+  </si>
+  <si>
+    <t>{{monthly.paySuccessBalance}}</t>
   </si>
 </sst>
 </file>
@@ -107,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="26">
@@ -145,7 +150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,10 +180,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -214,6 +225,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -242,44 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -287,6 +268,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -294,9 +298,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -320,19 +325,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,84 +493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,78 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +636,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,30 +686,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -712,177 +708,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,8 +1025,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="48" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="51"/>
-    <cellStyle name="常规 10" xfId="52"/>
+    <cellStyle name="常规 10" xfId="51"/>
+    <cellStyle name="常规 2 3" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
     <cellStyle name="常规 11" xfId="55"/>
@@ -1298,7 +1303,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1533,26 +1538,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1638,7 +1627,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1668,7 +1657,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>

--- a/template/monthlyStatement.xlsx
+++ b/template/monthlyStatement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>深圳市拜特科技股份有限公司月对账单</t>
   </si>
@@ -55,7 +55,7 @@
     <t>利息合计</t>
   </si>
   <si>
-    <t>税额</t>
+    <t>手续费</t>
   </si>
   <si>
     <t>${monthly.paySuccessBalance}</t>
@@ -79,6 +79,9 @@
     <t>发生金额</t>
   </si>
   <si>
+    <t>计息天数</t>
+  </si>
+  <si>
     <t>利息</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>${t.paySuccessBalance}</t>
+  </si>
+  <si>
+    <t>${t.days}</t>
   </si>
   <si>
     <t>${t.interest}</t>
@@ -120,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
@@ -177,12 +183,125 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,123 +310,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,37 +363,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,102 +507,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,18 +520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,15 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="24"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="24"/>
       </left>
@@ -632,11 +629,22 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF9999FF"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -661,7 +669,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,11 +689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,23 +722,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,16 +756,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,140 +780,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -923,103 +933,136 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,10 +1393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1364,14 +1407,15 @@
     <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="3.75" customHeight="1" spans="2:9">
+    <row r="1" s="1" customFormat="1" ht="3.75" customHeight="1" spans="2:10">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1380,8 +1424,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="2:9">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1392,8 +1437,9 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:9">
+    <row r="3" s="1" customFormat="1" spans="2:10">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1406,8 +1452,9 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="2:9">
+    <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="2:10">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1418,68 +1465,71 @@
         <v>4</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="J4" s="44"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="2:9">
+    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="2:8">
       <c r="B5" s="5"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
-      <c r="B6" s="9" t="s">
+    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="12"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
-      <c r="B7" s="11" t="s">
+    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
-      <c r="B8" s="9" t="s">
+    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="J8" s="46"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
+    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="2:10">
       <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1490,146 +1540,157 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="47"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="2:9">
-      <c r="B11" s="22" t="s">
+    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="12"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="2:9">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" s="1" customFormat="1" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31" t="s">
+      <c r="D13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="36"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" s="1" customFormat="1" spans="1:10">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="C14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="21.75" customHeight="1" spans="2:9">
-      <c r="B15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="36" t="s">
+    <row r="15" s="1" customFormat="1" ht="21.75" customHeight="1" spans="2:10">
+      <c r="B15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="36"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="41"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
-      <c r="B16" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="39"/>
+    <row r="16" s="1" customFormat="1" ht="28.5" customHeight="1" spans="2:10">
+      <c r="B16" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
+  <mergeCells count="28">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F6:J6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
